--- a/biology/Botanique/Remirea_maritima/Remirea_maritima.xlsx
+++ b/biology/Botanique/Remirea_maritima/Remirea_maritima.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Remirea maritima est une espèce de plante herbacée appartenant à la famille des Cyperaceae présente sur les plages tropicales.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Remirea tient son nom de Rémire, commune de l'île de Cayenne en Guyane, où elle a été collectée pour la première fois.
 </t>
@@ -542,9 +556,11 @@
           <t>Statut</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Remirea maritima est une espèce déterminante ZNIEFF en Guyane[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Remirea maritima est une espèce déterminante ZNIEFF en Guyane.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Histoire naturelle</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante[1] : 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante : 
 « REMIREA maritima. (Tabula 16.)
 Planta perennis ; RADICE longa, ramoſa, nodoſa, ſolida, repente, internodiis ſquamulâ obvolutis ; nodis ſingulis radiculas capillaceas, ramoſas, &amp; culmos per intervalla emittentibus.
 Culmi ſunt ſemipedales, in ſummitate ramoſi, ſquamulis in parte inferiore, ſeu foliolis amplexantibus, veſtiuntur..
